--- a/datasets_single/kp_dam_ceftaz.xlsx
+++ b/datasets_single/kp_dam_ceftaz.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3858355F-8208-F946-8CC0-54E97CF78612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE99B32-1F9B-BC43-9046-2B0F3E06B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="5480" windowWidth="28040" windowHeight="17440" xr2:uid="{B8BF79C9-1768-9648-AB6F-06CD37B2BCE2}"/>
+    <workbookView xWindow="30480" yWindow="10900" windowWidth="28040" windowHeight="17440" xr2:uid="{B8BF79C9-1768-9648-AB6F-06CD37B2BCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>replicate</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>ctz_s</t>
+  </si>
+  <si>
+    <t>ctz_mic</t>
   </si>
 </sst>
 </file>
@@ -112,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -258,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97E8B2F-9AB3-4D40-AEBF-22A3B28F2E60}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +438,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,8 +461,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>F2/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -475,8 +485,12 @@
       <c r="F3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">F3/4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -495,8 +509,12 @@
       <c r="F4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -515,8 +533,12 @@
       <c r="F5">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -535,8 +557,12 @@
       <c r="F6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -555,8 +581,12 @@
       <c r="F7">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -575,8 +605,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -595,8 +629,12 @@
       <c r="F9">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -615,8 +653,12 @@
       <c r="F10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -634,6 +676,10 @@
       </c>
       <c r="F11">
         <v>400</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
